--- a/output/fit_clients/fit_round_30.xlsx
+++ b/output/fit_clients/fit_round_30.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I101"/>
+  <dimension ref="A1:N101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,7 +471,32 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>UCB_mu</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>UCB_U</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>UCB_omega</t>
         </is>
       </c>
     </row>
@@ -485,25 +510,40 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="D2" t="n">
-        <v>5852483077.141784</v>
+        <v>8377120117.984083</v>
       </c>
       <c r="E2" t="n">
-        <v>0.001351815838892293</v>
+        <v>0.004212508431506714</v>
       </c>
       <c r="F2" t="n">
-        <v>0.212595275133652</v>
+        <v>0.1491501867470744</v>
       </c>
       <c r="G2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.3880449209261195</v>
+        <v>0.2370572946842447</v>
       </c>
       <c r="I2" t="n">
-        <v>0.147071272097287</v>
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.253132714455287</v>
+      </c>
+      <c r="L2" t="n">
+        <v>8.704472549943224</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.7504964351204471</v>
+      </c>
+      <c r="N2" t="n">
+        <v>6.305456152465718</v>
       </c>
     </row>
     <row r="3">
@@ -516,25 +556,40 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>555</v>
+        <v>601</v>
       </c>
       <c r="D3" t="n">
-        <v>9790889612.742979</v>
+        <v>9655297020.244038</v>
       </c>
       <c r="E3" t="n">
-        <v>0.004891641142873002</v>
+        <v>0.004729482473230561</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1484810377300046</v>
+        <v>0.163045568323719</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1696327913046231</v>
+        <v>0.2799997276903473</v>
       </c>
       <c r="I3" t="n">
-        <v>1.824204395909734</v>
+        <v>12</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.4904060675572361</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2.93009773207322</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.5371762911976032</v>
+      </c>
+      <c r="N3" t="n">
+        <v>7.813428091878846</v>
       </c>
     </row>
     <row r="4">
@@ -547,25 +602,40 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>567</v>
+        <v>500</v>
       </c>
       <c r="D4" t="n">
-        <v>7759894355.456568</v>
+        <v>7105353064.675806</v>
       </c>
       <c r="E4" t="n">
-        <v>0.002660625459979935</v>
+        <v>0.004673846907399744</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1913936017641333</v>
+        <v>0.1843251120779819</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.315819112436467</v>
+        <v>0.3457622529601657</v>
       </c>
       <c r="I4" t="n">
-        <v>1.863646653118593</v>
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.1290021809797127</v>
+      </c>
+      <c r="L4" t="n">
+        <v>8.58034201646765</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.7620845164946533</v>
+      </c>
+      <c r="N4" t="n">
+        <v>6.661348313425414</v>
       </c>
     </row>
     <row r="5">
@@ -578,25 +648,40 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>554</v>
+        <v>411</v>
       </c>
       <c r="D5" t="n">
-        <v>4569871294.90507</v>
+        <v>10745355731.86797</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004016583157079982</v>
+        <v>0.001223787715423529</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3175454988454209</v>
+        <v>0.1001892647264503</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.7455692835856347</v>
+        <v>0.08574794760438104</v>
       </c>
       <c r="I5" t="n">
-        <v>1.820917541142329</v>
+        <v>13</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.1108747270604266</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2.454854659616053</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-0.457190449197355</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-11.59866364356315</v>
       </c>
     </row>
     <row r="6">
@@ -609,25 +694,40 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>467</v>
+        <v>514</v>
       </c>
       <c r="D6" t="n">
-        <v>7482283381.14362</v>
+        <v>6432790204.856449</v>
       </c>
       <c r="E6" t="n">
-        <v>0.004860331894281408</v>
+        <v>0.001582336081445277</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1634868752876656</v>
+        <v>0.2092974303722135</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2207518105809332</v>
+        <v>0.4229369674105812</v>
       </c>
       <c r="I6" t="n">
-        <v>1.5349611763781</v>
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.2051108162877704</v>
+      </c>
+      <c r="L6" t="n">
+        <v>8.656450651775708</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.7689415749319991</v>
+      </c>
+      <c r="N6" t="n">
+        <v>6.722380846864274</v>
       </c>
     </row>
     <row r="7">
@@ -640,25 +740,40 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>449</v>
+        <v>612</v>
       </c>
       <c r="D7" t="n">
-        <v>4086098987.0076</v>
+        <v>4454740269.19018</v>
       </c>
       <c r="E7" t="n">
-        <v>0.00476053254405719</v>
+        <v>0.001883725710957506</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2878310373144694</v>
+        <v>0.3598563739141225</v>
       </c>
       <c r="G7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6443437354648371</v>
+        <v>0.8882259061026286</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1063513609432639</v>
+        <v>14</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.3927528687266489</v>
+      </c>
+      <c r="L7" t="n">
+        <v>2.6514684489831</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.4483228805735838</v>
+      </c>
+      <c r="N7" t="n">
+        <v>6.314989162488576</v>
       </c>
     </row>
     <row r="8">
@@ -671,25 +786,40 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>584</v>
+        <v>460</v>
       </c>
       <c r="D8" t="n">
-        <v>8891599632.940325</v>
+        <v>4620896143.011669</v>
       </c>
       <c r="E8" t="n">
-        <v>0.002545926378417389</v>
+        <v>0.00141942319606712</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1720414574597914</v>
+        <v>0.2607544862963948</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2498939260594805</v>
+        <v>0.5819603928938712</v>
       </c>
       <c r="I8" t="n">
-        <v>1.919523184164476</v>
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.1093358048275254</v>
+      </c>
+      <c r="L8" t="n">
+        <v>8.560675640315463</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.7416550991849485</v>
+      </c>
+      <c r="N8" t="n">
+        <v>6.272426343383508</v>
       </c>
     </row>
     <row r="9">
@@ -702,25 +832,40 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>444</v>
+        <v>509</v>
       </c>
       <c r="D9" t="n">
-        <v>9898866507.89386</v>
+        <v>4233316405.094681</v>
       </c>
       <c r="E9" t="n">
-        <v>0.004667730463380518</v>
+        <v>0.003457409428442477</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1174891245449726</v>
+        <v>0.3149468129515305</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.06405546505224428</v>
+        <v>0.7494369277408501</v>
       </c>
       <c r="I9" t="n">
-        <v>1.459363516727787</v>
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.4145510261416697</v>
+      </c>
+      <c r="L9" t="n">
+        <v>8.865890861629607</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.7665090376925127</v>
+      </c>
+      <c r="N9" t="n">
+        <v>6.464289892220647</v>
       </c>
     </row>
     <row r="10">
@@ -733,25 +878,40 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>553</v>
+        <v>522</v>
       </c>
       <c r="D10" t="n">
-        <v>5143281909.762146</v>
+        <v>13410223949.5508</v>
       </c>
       <c r="E10" t="n">
-        <v>0.001195970560627643</v>
+        <v>0.002444318691671547</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2816339246835077</v>
+        <v>0.1019611294445087</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6232325966282142</v>
+        <v>0.09122373691836357</v>
       </c>
       <c r="I10" t="n">
-        <v>1.817630686374924</v>
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.08828996757149382</v>
+      </c>
+      <c r="L10" t="n">
+        <v>8.539629803059432</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.7727966908236824</v>
+      </c>
+      <c r="N10" t="n">
+        <v>6.916304013414216</v>
       </c>
     </row>
     <row r="11">
@@ -764,25 +924,40 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>411</v>
+        <v>579</v>
       </c>
       <c r="D11" t="n">
-        <v>9056997494.44145</v>
+        <v>7798460562.694389</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002341589887010742</v>
+        <v>0.003264219028667802</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1188660249338396</v>
+        <v>0.1944777174683822</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.06874602612553229</v>
+        <v>0.3771379711734353</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1030719106247854</v>
+        <v>11</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.9840497298312657</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.3966545590425145</v>
+      </c>
+      <c r="L11" t="n">
+        <v>2.944829396324098</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.8708442174085229</v>
+      </c>
+      <c r="N11" t="n">
+        <v>14.47205495184636</v>
       </c>
     </row>
     <row r="12">
@@ -795,25 +970,40 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="D12" t="n">
-        <v>10993300977.21116</v>
+        <v>3867695498.765666</v>
       </c>
       <c r="E12" t="n">
-        <v>0.001210634708075548</v>
+        <v>0.001077080645217143</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1153233921847574</v>
+        <v>0.3291426484857125</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0566776619910184</v>
+        <v>0.7933078868095009</v>
       </c>
       <c r="I12" t="n">
-        <v>1.590837707423984</v>
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.1607638034554517</v>
+      </c>
+      <c r="L12" t="n">
+        <v>8.612103638943388</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.7550803933350725</v>
+      </c>
+      <c r="N12" t="n">
+        <v>6.489504227758061</v>
       </c>
     </row>
     <row r="13">
@@ -826,25 +1016,40 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>473</v>
+        <v>547</v>
       </c>
       <c r="D13" t="n">
-        <v>10503823439.59379</v>
+        <v>12817468408.93857</v>
       </c>
       <c r="E13" t="n">
-        <v>0.003799180704273011</v>
+        <v>0.004896683613022226</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1179543313085158</v>
+        <v>0.1117854387689224</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.06564024253778319</v>
+        <v>0.1215848855250317</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1121002342720116</v>
+        <v>9</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.2492774227933591</v>
+      </c>
+      <c r="L13" t="n">
+        <v>3.066390701289338</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.5965807946854731</v>
+      </c>
+      <c r="N13" t="n">
+        <v>8.865225192420125</v>
       </c>
     </row>
     <row r="14">
@@ -857,25 +1062,40 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>529</v>
+        <v>615</v>
       </c>
       <c r="D14" t="n">
-        <v>7858067146.659181</v>
+        <v>5364968822.06596</v>
       </c>
       <c r="E14" t="n">
-        <v>0.002083211896376473</v>
+        <v>0.002813756704495657</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1763356413401361</v>
+        <v>0.300267327439875</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.2645225309415379</v>
+        <v>0.7040712917076626</v>
       </c>
       <c r="I14" t="n">
-        <v>1.738746171957205</v>
+        <v>14</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.3712949447311656</v>
+      </c>
+      <c r="L14" t="n">
+        <v>2.630010524987616</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.4533765906781102</v>
+      </c>
+      <c r="N14" t="n">
+        <v>6.437521288574588</v>
       </c>
     </row>
     <row r="15">
@@ -888,25 +1108,40 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>561</v>
+        <v>375</v>
       </c>
       <c r="D15" t="n">
-        <v>6778880688.930159</v>
+        <v>8006773926.622547</v>
       </c>
       <c r="E15" t="n">
-        <v>0.003835257473186202</v>
+        <v>0.001760728831000593</v>
       </c>
       <c r="F15" t="n">
-        <v>0.216772924238015</v>
+        <v>0.1226800280614824</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4022765374070376</v>
+        <v>0.1552536385739661</v>
       </c>
       <c r="I15" t="n">
-        <v>1.843925524514163</v>
+        <v>2</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.1058441099141851</v>
+      </c>
+      <c r="L15" t="n">
+        <v>6.081843817699706</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.668746176595457</v>
+      </c>
+      <c r="N15" t="n">
+        <v>7.293079714209433</v>
       </c>
     </row>
     <row r="16">
@@ -919,25 +1154,40 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>597</v>
+        <v>509</v>
       </c>
       <c r="D16" t="n">
-        <v>4586274963.526489</v>
+        <v>8791149464.688847</v>
       </c>
       <c r="E16" t="n">
-        <v>0.001409256946904231</v>
+        <v>0.004064863544109287</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3409686166739506</v>
+        <v>0.15166043022648</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0.8253626844662535</v>
+        <v>0.2448149774689021</v>
       </c>
       <c r="I16" t="n">
-        <v>1.96225229614074</v>
+        <v>9</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.988248938692244</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.4576226045509829</v>
+      </c>
+      <c r="L16" t="n">
+        <v>3.274735883046962</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.8494560804959145</v>
+      </c>
+      <c r="N16" t="n">
+        <v>13.71438572687133</v>
       </c>
     </row>
     <row r="17">
@@ -950,25 +1200,40 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>443</v>
+        <v>548</v>
       </c>
       <c r="D17" t="n">
-        <v>4165373129.116753</v>
+        <v>6120276384.995766</v>
       </c>
       <c r="E17" t="n">
-        <v>0.002632533958853625</v>
+        <v>0.003703471732622985</v>
       </c>
       <c r="F17" t="n">
-        <v>0.278580029694976</v>
+        <v>0.2345360944023761</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.6128291708822864</v>
+        <v>0.5009347995176502</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1173710836512716</v>
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.4100367184014016</v>
+      </c>
+      <c r="L17" t="n">
+        <v>8.86137655388934</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.785025701367555</v>
+      </c>
+      <c r="N17" t="n">
+        <v>6.839137473461761</v>
       </c>
     </row>
     <row r="18">
@@ -981,25 +1246,40 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>466</v>
+        <v>419</v>
       </c>
       <c r="D18" t="n">
-        <v>7354891510.343997</v>
+        <v>3624217065.853345</v>
       </c>
       <c r="E18" t="n">
-        <v>0.002530237705619667</v>
+        <v>0.00268396840055083</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1659624398651272</v>
+        <v>0.3028307604256537</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.2291850908206225</v>
+        <v>0.7119933519008463</v>
       </c>
       <c r="I18" t="n">
-        <v>1.531674321610695</v>
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.1607979897498079</v>
+      </c>
+      <c r="L18" t="n">
+        <v>8.612137825237745</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.7192550065972683</v>
+      </c>
+      <c r="N18" t="n">
+        <v>5.772962306707619</v>
       </c>
     </row>
     <row r="19">
@@ -1012,25 +1292,40 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D19" t="n">
-        <v>4968714621.506243</v>
+        <v>6875959456.238523</v>
       </c>
       <c r="E19" t="n">
-        <v>0.003725842327384357</v>
+        <v>0.004381170488033023</v>
       </c>
       <c r="F19" t="n">
-        <v>0.2646426450632787</v>
+        <v>0.1904745088064358</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.5653499528172247</v>
+        <v>0.3647664131253984</v>
       </c>
       <c r="I19" t="n">
-        <v>1.650001093237272</v>
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.5012376349196741</v>
+      </c>
+      <c r="L19" t="n">
+        <v>8.952577470407611</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.7620845164946533</v>
+      </c>
+      <c r="N19" t="n">
+        <v>6.289112859485453</v>
       </c>
     </row>
     <row r="20">
@@ -1043,25 +1338,40 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>585</v>
+        <v>565</v>
       </c>
       <c r="D20" t="n">
-        <v>5130538470.95859</v>
+        <v>12804806293.09117</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002579420329773804</v>
+        <v>0.00339823203015052</v>
       </c>
       <c r="F20" t="n">
-        <v>0.2986710183879972</v>
+        <v>0.1155781131026175</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.6812713111048655</v>
+        <v>0.1333058060762466</v>
       </c>
       <c r="I20" t="n">
-        <v>1.922810038931881</v>
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.74589236555726</v>
+      </c>
+      <c r="L20" t="n">
+        <v>9.197232201045198</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.7927873547780662</v>
+      </c>
+      <c r="N20" t="n">
+        <v>6.658514894516125</v>
       </c>
     </row>
     <row r="21">
@@ -1074,25 +1384,40 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>540</v>
+        <v>377</v>
       </c>
       <c r="D21" t="n">
-        <v>4474692251.813154</v>
+        <v>11444440535.54069</v>
       </c>
       <c r="E21" t="n">
-        <v>0.004981914292164171</v>
+        <v>0.002392255091252635</v>
       </c>
       <c r="F21" t="n">
-        <v>0.3161045543247927</v>
+        <v>0.08628731364659456</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.7406605492052281</v>
+        <v>0.04278521213663179</v>
       </c>
       <c r="I21" t="n">
-        <v>1.77490157439866</v>
+        <v>7</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.1255351042622175</v>
+      </c>
+      <c r="L21" t="n">
+        <v>3.319841311404304</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.4960493161528752</v>
+      </c>
+      <c r="N21" t="n">
+        <v>6.601145011653201</v>
       </c>
     </row>
     <row r="22">
@@ -1105,25 +1430,40 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>548</v>
+        <v>604</v>
       </c>
       <c r="D22" t="n">
-        <v>6943274355.931602</v>
+        <v>5788653283.829782</v>
       </c>
       <c r="E22" t="n">
-        <v>0.003435409090929079</v>
+        <v>0.004228785649608674</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2067361372194264</v>
+        <v>0.27331254480546</v>
       </c>
       <c r="G22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>0.3680851297562526</v>
+        <v>0.6207699486615703</v>
       </c>
       <c r="I22" t="n">
-        <v>1.801196412537899</v>
+        <v>12</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.9862197517838788</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.3082664489720656</v>
+      </c>
+      <c r="L22" t="n">
+        <v>2.747958113488049</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.87579217083401</v>
+      </c>
+      <c r="N22" t="n">
+        <v>14.76788530319215</v>
       </c>
     </row>
     <row r="23">
@@ -1136,25 +1476,40 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>478</v>
+        <v>538</v>
       </c>
       <c r="D23" t="n">
-        <v>10302140952.52741</v>
+        <v>9387086324.161699</v>
       </c>
       <c r="E23" t="n">
-        <v>0.003950282358147591</v>
+        <v>0.00442692559926159</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1215347786221884</v>
+        <v>0.1501245190824267</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.07783742610332163</v>
+        <v>0.2400683815555021</v>
       </c>
       <c r="I23" t="n">
-        <v>1.571116578819554</v>
+        <v>1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.4719053501680949</v>
+      </c>
+      <c r="L23" t="n">
+        <v>8.923245185656032</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.7803750677611578</v>
+      </c>
+      <c r="N23" t="n">
+        <v>6.684256169567124</v>
       </c>
     </row>
     <row r="24">
@@ -1167,25 +1522,40 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>525</v>
+        <v>569</v>
       </c>
       <c r="D24" t="n">
-        <v>5202816824.169749</v>
+        <v>10365161845.88001</v>
       </c>
       <c r="E24" t="n">
-        <v>0.002757449512240559</v>
+        <v>0.004152234714061027</v>
       </c>
       <c r="F24" t="n">
-        <v>0.264314465889244</v>
+        <v>0.1437925362055416</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.5642319747330891</v>
+        <v>0.2204999552415781</v>
       </c>
       <c r="I24" t="n">
-        <v>1.725598752887586</v>
+        <v>12</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.9898322169556738</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.3153889291167583</v>
+      </c>
+      <c r="L24" t="n">
+        <v>2.755080593632742</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.8518053764202405</v>
+      </c>
+      <c r="N24" t="n">
+        <v>14.28102693477207</v>
       </c>
     </row>
     <row r="25">
@@ -1198,25 +1568,40 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="D25" t="n">
-        <v>6635540495.52455</v>
+        <v>7245356161.31812</v>
       </c>
       <c r="E25" t="n">
-        <v>0.003374091722585616</v>
+        <v>0.003735397575031725</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1993495406880839</v>
+        <v>0.1782326832867617</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.3429218845177858</v>
+        <v>0.326934147105832</v>
       </c>
       <c r="I25" t="n">
-        <v>0.127717732332758</v>
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.332831625603894</v>
+      </c>
+      <c r="L25" t="n">
+        <v>8.784171461091832</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.7586013165481668</v>
+      </c>
+      <c r="N25" t="n">
+        <v>6.387854869871504</v>
       </c>
     </row>
     <row r="26">
@@ -1229,25 +1614,40 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>418</v>
+        <v>591</v>
       </c>
       <c r="D26" t="n">
-        <v>8843579476.875933</v>
+        <v>6669782747.93954</v>
       </c>
       <c r="E26" t="n">
-        <v>0.001619619687924144</v>
+        <v>0.003346233460880628</v>
       </c>
       <c r="F26" t="n">
-        <v>0.123807901864052</v>
+        <v>0.2321004369262603</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.08558106789417444</v>
+        <v>0.4934076181000691</v>
       </c>
       <c r="I26" t="n">
-        <v>1.373905292775259</v>
+        <v>15</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.3282422968227051</v>
+      </c>
+      <c r="L26" t="n">
+        <v>2.510368859221646</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.2958433191698172</v>
+      </c>
+      <c r="N26" t="n">
+        <v>3.406497524174699</v>
       </c>
     </row>
     <row r="27">
@@ -1260,25 +1660,40 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>559</v>
+        <v>587</v>
       </c>
       <c r="D27" t="n">
-        <v>9466741880.977211</v>
+        <v>10915382122.69219</v>
       </c>
       <c r="E27" t="n">
-        <v>0.001976772246546785</v>
+        <v>0.00401423750995453</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1546719059640034</v>
+        <v>0.140863774874495</v>
       </c>
       <c r="G27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>0.1907226579231853</v>
+        <v>0.2114488804973823</v>
       </c>
       <c r="I27" t="n">
-        <v>1.837351814979353</v>
+        <v>17</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.988414218218747</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.3453057203839898</v>
+      </c>
+      <c r="L27" t="n">
+        <v>2.395056709778516</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.7864202453233757</v>
+      </c>
+      <c r="N27" t="n">
+        <v>13.333348196689</v>
       </c>
     </row>
     <row r="28">
@@ -1291,25 +1706,40 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>440</v>
+        <v>578</v>
       </c>
       <c r="D28" t="n">
-        <v>6341906193.155777</v>
+        <v>6026557493.997149</v>
       </c>
       <c r="E28" t="n">
-        <v>0.004708951780596967</v>
+        <v>0.003820774004081493</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1817326786138557</v>
+        <v>0.2512225962347578</v>
       </c>
       <c r="G28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>0.2829081259721455</v>
+        <v>0.5525029398447682</v>
       </c>
       <c r="I28" t="n">
-        <v>1.446216097658167</v>
+        <v>12</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.9870080061795063</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.3392052449266327</v>
+      </c>
+      <c r="L28" t="n">
+        <v>2.778896909442616</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.8573188839146613</v>
+      </c>
+      <c r="N28" t="n">
+        <v>14.36748076885061</v>
       </c>
     </row>
     <row r="29">
@@ -1322,25 +1752,40 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>521</v>
+        <v>618</v>
       </c>
       <c r="D29" t="n">
-        <v>7525984161.739493</v>
+        <v>6708980967.351545</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003648709149239378</v>
+        <v>0.004965611296417732</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1813320571331862</v>
+        <v>0.2412859758997103</v>
       </c>
       <c r="G29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>0.2815433652839028</v>
+        <v>0.5217947041125406</v>
       </c>
       <c r="I29" t="n">
-        <v>1.712451333817966</v>
+        <v>12</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.9851712727993864</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.3015248738036007</v>
+      </c>
+      <c r="L29" t="n">
+        <v>2.741216538319585</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.8850929310420275</v>
+      </c>
+      <c r="N29" t="n">
+        <v>14.96064208252097</v>
       </c>
     </row>
     <row r="30">
@@ -1353,25 +1798,40 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>588</v>
+        <v>477</v>
       </c>
       <c r="D30" t="n">
-        <v>8668563636.428631</v>
+        <v>4413980404.588244</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003692672530015469</v>
+        <v>0.004754256667193547</v>
       </c>
       <c r="F30" t="n">
-        <v>0.177676646858481</v>
+        <v>0.2830662838242831</v>
       </c>
       <c r="G30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.2690908122306362</v>
+        <v>0.6509130060554618</v>
       </c>
       <c r="I30" t="n">
-        <v>0.1148857552163487</v>
+        <v>1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.08891684913212877</v>
+      </c>
+      <c r="L30" t="n">
+        <v>8.540256684620067</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.7504964351204471</v>
+      </c>
+      <c r="N30" t="n">
+        <v>6.469672017788875</v>
       </c>
     </row>
     <row r="31">
@@ -1384,25 +1844,40 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>562</v>
+        <v>375</v>
       </c>
       <c r="D31" t="n">
-        <v>7539690378.45592</v>
+        <v>9209900949.917313</v>
       </c>
       <c r="E31" t="n">
-        <v>0.004953000027454639</v>
+        <v>0.00204219693722102</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1952463703557912</v>
+        <v>0.1066538343182528</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.3289439880821834</v>
+        <v>0.1057261212931025</v>
       </c>
       <c r="I31" t="n">
-        <v>1.847212379281568</v>
+        <v>4</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.266000698078337</v>
+      </c>
+      <c r="L31" t="n">
+        <v>4.491670615822306</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.6122454384123487</v>
+      </c>
+      <c r="N31" t="n">
+        <v>7.753238152424668</v>
       </c>
     </row>
     <row r="32">
@@ -1415,25 +1890,40 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>448</v>
+        <v>397</v>
       </c>
       <c r="D32" t="n">
-        <v>7200040141.785623</v>
+        <v>8946188037.414518</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002302539363220608</v>
+        <v>0.003322977913475706</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1629833579940255</v>
+        <v>0.1162392100021781</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.2190365241038779</v>
+        <v>0.1353488668704632</v>
       </c>
       <c r="I32" t="n">
-        <v>1.472510935797406</v>
+        <v>8</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.1469596024844155</v>
+      </c>
+      <c r="L32" t="n">
+        <v>3.134959456377176</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.4701263403182691</v>
+      </c>
+      <c r="N32" t="n">
+        <v>6.267567349988205</v>
       </c>
     </row>
     <row r="33">
@@ -1446,25 +1936,40 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>419</v>
+        <v>519</v>
       </c>
       <c r="D33" t="n">
-        <v>9214688682.339493</v>
+        <v>9161752732.033985</v>
       </c>
       <c r="E33" t="n">
-        <v>0.003042729667140085</v>
+        <v>0.003449276237456637</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1191059674217179</v>
+        <v>0.1483846431749515</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.06956341633223853</v>
+        <v>0.2346914507973524</v>
       </c>
       <c r="I33" t="n">
-        <v>1.377192147542664</v>
+        <v>1</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.1980929324883558</v>
+      </c>
+      <c r="L33" t="n">
+        <v>8.649432767976293</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.7713562878242444</v>
+      </c>
+      <c r="N33" t="n">
+        <v>6.777692988508594</v>
       </c>
     </row>
     <row r="34">
@@ -1477,25 +1982,40 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>537</v>
+        <v>424</v>
       </c>
       <c r="D34" t="n">
-        <v>4102831660.681138</v>
+        <v>7905432987.956046</v>
       </c>
       <c r="E34" t="n">
-        <v>0.00168172816104123</v>
+        <v>0.004010447019284172</v>
       </c>
       <c r="F34" t="n">
-        <v>0.342839420754221</v>
+        <v>0.1404883656204582</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.8317357822339766</v>
+        <v>0.210288711800148</v>
       </c>
       <c r="I34" t="n">
-        <v>1.765041010096445</v>
+        <v>6</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.3228009004294777</v>
+      </c>
+      <c r="L34" t="n">
+        <v>3.773045940396573</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.5888015630598944</v>
+      </c>
+      <c r="N34" t="n">
+        <v>8.002985320801315</v>
       </c>
     </row>
     <row r="35">
@@ -1508,25 +2028,40 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>474</v>
+        <v>611</v>
       </c>
       <c r="D35" t="n">
-        <v>8693873932.43367</v>
+        <v>6352358190.785635</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002295289182122432</v>
+        <v>0.00487487922544918</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1428121536669721</v>
+        <v>0.2519453786975547</v>
       </c>
       <c r="G35" t="b">
         <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1503211205911561</v>
+        <v>0.5547366343507765</v>
       </c>
       <c r="I35" t="n">
-        <v>0.1287154308489219</v>
+        <v>13</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.9888429930437167</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.4011584788042513</v>
+      </c>
+      <c r="L35" t="n">
+        <v>2.745138411359878</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.8681753250991725</v>
+      </c>
+      <c r="N35" t="n">
+        <v>14.61836809062357</v>
       </c>
     </row>
     <row r="36">
@@ -1539,25 +2074,40 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>590</v>
+        <v>463</v>
       </c>
       <c r="D36" t="n">
-        <v>4837274264.928052</v>
+        <v>12914019033.67707</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0016731837889433</v>
+        <v>0.004396834918372778</v>
       </c>
       <c r="F36" t="n">
-        <v>0.3194857300535938</v>
+        <v>0.09391170686966847</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.7521788924228604</v>
+        <v>0.06634771694357752</v>
       </c>
       <c r="I36" t="n">
-        <v>1.939244312768906</v>
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.1447429700792935</v>
+      </c>
+      <c r="L36" t="n">
+        <v>8.596082805567232</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.7432332282885639</v>
+      </c>
+      <c r="N36" t="n">
+        <v>6.268581760204047</v>
       </c>
     </row>
     <row r="37">
@@ -1570,25 +2120,40 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>459</v>
+        <v>378</v>
       </c>
       <c r="D37" t="n">
-        <v>7349869184.028534</v>
+        <v>5504719980.008165</v>
       </c>
       <c r="E37" t="n">
-        <v>0.003464404985076307</v>
+        <v>0.003463822825190348</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1635811440852078</v>
+        <v>0.179869171110595</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.2210729475024943</v>
+        <v>0.3319915662456117</v>
       </c>
       <c r="I37" t="n">
-        <v>1.508666338238861</v>
+        <v>6</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.2619616085761116</v>
+      </c>
+      <c r="L37" t="n">
+        <v>3.712206648543207</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.5432681735918991</v>
+      </c>
+      <c r="N37" t="n">
+        <v>7.153156823294774</v>
       </c>
     </row>
     <row r="38">
@@ -1601,25 +2166,40 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>409</v>
+        <v>481</v>
       </c>
       <c r="D38" t="n">
-        <v>9866353355.06625</v>
+        <v>5559860082.408669</v>
       </c>
       <c r="E38" t="n">
-        <v>0.001880144056847697</v>
+        <v>0.002473299080977689</v>
       </c>
       <c r="F38" t="n">
-        <v>0.10858424297665</v>
+        <v>0.22661120447732</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.03372001654461059</v>
+        <v>0.4764436365502754</v>
       </c>
       <c r="I38" t="n">
-        <v>1.344323599868614</v>
+        <v>1</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.185263249270528</v>
+      </c>
+      <c r="L38" t="n">
+        <v>8.636603084758466</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.7525417957419518</v>
+      </c>
+      <c r="N38" t="n">
+        <v>6.41423283008057</v>
       </c>
     </row>
     <row r="39">
@@ -1632,25 +2212,40 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>445</v>
+        <v>573</v>
       </c>
       <c r="D39" t="n">
-        <v>7769038720.781864</v>
+        <v>9802579872.157082</v>
       </c>
       <c r="E39" t="n">
-        <v>0.003428804882655717</v>
+        <v>0.003401184631037176</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1500351062586406</v>
+        <v>0.1531138220320077</v>
       </c>
       <c r="G39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.1749268949337466</v>
+        <v>0.2493065547527813</v>
       </c>
       <c r="I39" t="n">
-        <v>0.1177787364441948</v>
+        <v>1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.8796055806886142</v>
+      </c>
+      <c r="L39" t="n">
+        <v>9.330945416176551</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.7963793340833069</v>
+      </c>
+      <c r="N39" t="n">
+        <v>6.596641265489586</v>
       </c>
     </row>
     <row r="40">
@@ -1663,25 +2258,40 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D40" t="n">
-        <v>7872949222.989018</v>
+        <v>8994064493.369787</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003944419583593229</v>
+        <v>0.002234513778143185</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1770004404360863</v>
+        <v>0.1546459991503659</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.2667872414363815</v>
+        <v>0.254041610993998</v>
       </c>
       <c r="I40" t="n">
-        <v>1.74860673625942</v>
+        <v>1</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.4009578770091899</v>
+      </c>
+      <c r="L40" t="n">
+        <v>8.852297712497128</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.7770807357033739</v>
+      </c>
+      <c r="N40" t="n">
+        <v>6.68931700157035</v>
       </c>
     </row>
     <row r="41">
@@ -1694,25 +2304,40 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>489</v>
+        <v>448</v>
       </c>
       <c r="D41" t="n">
-        <v>7884705040.206851</v>
+        <v>9679706397.283657</v>
       </c>
       <c r="E41" t="n">
-        <v>0.001532106934649001</v>
+        <v>0.00219550369589986</v>
       </c>
       <c r="F41" t="n">
-        <v>0.162451442821049</v>
+        <v>0.1212316440020646</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.2172244971592796</v>
+        <v>0.150777537281203</v>
       </c>
       <c r="I41" t="n">
-        <v>1.607271981261009</v>
+        <v>1</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.2505881178236177</v>
+      </c>
+      <c r="L41" t="n">
+        <v>8.701927953311555</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.7352628670824553</v>
+      </c>
+      <c r="N41" t="n">
+        <v>6.00332938833755</v>
       </c>
     </row>
     <row r="42">
@@ -1725,25 +2350,40 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>465</v>
+        <v>432</v>
       </c>
       <c r="D42" t="n">
-        <v>7135457512.413445</v>
+        <v>3296285480.475769</v>
       </c>
       <c r="E42" t="n">
-        <v>0.001144279356828981</v>
+        <v>0.004753020793672395</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1706991244613307</v>
+        <v>0.3432883731407494</v>
       </c>
       <c r="G42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.2453211225648493</v>
+        <v>0.8370239826915099</v>
       </c>
       <c r="I42" t="n">
-        <v>0.1356658052303593</v>
+        <v>1</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.2019701943007429</v>
+      </c>
+      <c r="L42" t="n">
+        <v>8.653310029788681</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.7265328165931124</v>
+      </c>
+      <c r="N42" t="n">
+        <v>5.877346302073567</v>
       </c>
     </row>
     <row r="43">
@@ -1756,25 +2396,40 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>487</v>
+        <v>378</v>
       </c>
       <c r="D43" t="n">
-        <v>8005624686.377197</v>
+        <v>11648490048.85669</v>
       </c>
       <c r="E43" t="n">
-        <v>0.004111428154496694</v>
+        <v>0.003894510149731226</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1593433342148431</v>
+        <v>0.08500066668273305</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.2066363868226866</v>
+        <v>0.03880894486082014</v>
       </c>
       <c r="I43" t="n">
-        <v>1.600698271726199</v>
+        <v>3</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.1276158596907264</v>
+      </c>
+      <c r="L43" t="n">
+        <v>5.006999188722694</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.6441527179491506</v>
+      </c>
+      <c r="N43" t="n">
+        <v>7.87605517026032</v>
       </c>
     </row>
     <row r="44">
@@ -1787,25 +2442,40 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>575</v>
+        <v>589</v>
       </c>
       <c r="D44" t="n">
-        <v>7450875407.618956</v>
+        <v>9983499735.018606</v>
       </c>
       <c r="E44" t="n">
-        <v>0.001635809515497397</v>
+        <v>0.00239899485333726</v>
       </c>
       <c r="F44" t="n">
-        <v>0.2021439317667122</v>
+        <v>0.1545370612460005</v>
       </c>
       <c r="G44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>0.3524412819432909</v>
+        <v>0.253704948151439</v>
       </c>
       <c r="I44" t="n">
-        <v>1.889941491257832</v>
+        <v>21</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.989728724398231</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.3420328684453225</v>
+      </c>
+      <c r="L44" t="n">
+        <v>2.186266417012899</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.7107457401714807</v>
+      </c>
+      <c r="N44" t="n">
+        <v>12.02864838641672</v>
       </c>
     </row>
     <row r="45">
@@ -1818,25 +2488,40 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>598</v>
+        <v>376</v>
       </c>
       <c r="D45" t="n">
-        <v>6212533055.493027</v>
+        <v>8435230056.766002</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001034802239271949</v>
+        <v>0.001818596851300997</v>
       </c>
       <c r="F45" t="n">
-        <v>0.2521347099497551</v>
+        <v>0.1167591913168992</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.5227403101552849</v>
+        <v>0.1369558225807954</v>
       </c>
       <c r="I45" t="n">
-        <v>1.965539150908145</v>
+        <v>4</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.2340962035540965</v>
+      </c>
+      <c r="L45" t="n">
+        <v>4.459766121298065</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.6130690629440915</v>
+      </c>
+      <c r="N45" t="n">
+        <v>7.801615137583765</v>
       </c>
     </row>
     <row r="46">
@@ -1849,25 +2534,40 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>410</v>
+        <v>594</v>
       </c>
       <c r="D46" t="n">
-        <v>10048875178.35763</v>
+        <v>13321483843.50792</v>
       </c>
       <c r="E46" t="n">
-        <v>0.002323942061119299</v>
+        <v>0.001716169518917231</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1068726480266147</v>
+        <v>0.1167976239192198</v>
       </c>
       <c r="G46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46" t="n">
-        <v>0.02788928201160742</v>
+        <v>0.1370745950982178</v>
       </c>
       <c r="I46" t="n">
-        <v>1.347610454636019</v>
+        <v>12</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.9883790768688879</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.3263166485540005</v>
+      </c>
+      <c r="L46" t="n">
+        <v>2.766008313069984</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.8696018328805035</v>
+      </c>
+      <c r="N46" t="n">
+        <v>14.62602834454009</v>
       </c>
     </row>
     <row r="47">
@@ -1880,25 +2580,40 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>475</v>
+        <v>419</v>
       </c>
       <c r="D47" t="n">
-        <v>7066317763.924069</v>
+        <v>3741399447.409357</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004545676530028684</v>
+        <v>0.003104837579760703</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1760761816220765</v>
+        <v>0.2933459592933748</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.2636386531654424</v>
+        <v>0.6826814229730589</v>
       </c>
       <c r="I47" t="n">
-        <v>1.56125601451734</v>
+        <v>1</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.2483044215716604</v>
+      </c>
+      <c r="L47" t="n">
+        <v>8.699644257059598</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.7192550065972683</v>
+      </c>
+      <c r="N47" t="n">
+        <v>5.685455874885767</v>
       </c>
     </row>
     <row r="48">
@@ -1911,25 +2626,40 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D48" t="n">
-        <v>9002438244.044891</v>
+        <v>12351007369.61986</v>
       </c>
       <c r="E48" t="n">
-        <v>0.004913119409870457</v>
+        <v>0.004633460584861609</v>
       </c>
       <c r="F48" t="n">
-        <v>0.170214236239126</v>
+        <v>0.1236420904222164</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.2436692980477244</v>
+        <v>0.1582268061869339</v>
       </c>
       <c r="I48" t="n">
-        <v>1.922810038931881</v>
+        <v>12</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.9862345793604145</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.2205960603907012</v>
+      </c>
+      <c r="L48" t="n">
+        <v>2.660287724906685</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.8606759785285472</v>
+      </c>
+      <c r="N48" t="n">
+        <v>14.55323184566426</v>
       </c>
     </row>
     <row r="49">
@@ -1942,25 +2672,40 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="D49" t="n">
-        <v>10165029418.44508</v>
+        <v>11344391470.7773</v>
       </c>
       <c r="E49" t="n">
-        <v>0.003272627013291664</v>
+        <v>0.001218675383278662</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1133820230671108</v>
+        <v>0.09951676058677525</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.05006417674129004</v>
+        <v>0.08366963375563713</v>
       </c>
       <c r="I49" t="n">
-        <v>1.446216097658167</v>
+        <v>1</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.3392114087631368</v>
+      </c>
+      <c r="L49" t="n">
+        <v>8.790551244251073</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.7259790061983308</v>
+      </c>
+      <c r="N49" t="n">
+        <v>5.729028879715543</v>
       </c>
     </row>
     <row r="50">
@@ -1973,25 +2718,40 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="D50" t="n">
-        <v>8165915091.410709</v>
+        <v>12606082013.3474</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004131512628833012</v>
+        <v>0.003098710838858551</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1696879399906447</v>
+        <v>0.1082574418090446</v>
       </c>
       <c r="G50" t="b">
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>0.2418764125811326</v>
+        <v>0.1106819267066909</v>
       </c>
       <c r="I50" t="n">
-        <v>1.738746171957205</v>
+        <v>10</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.2725425206533321</v>
+      </c>
+      <c r="L50" t="n">
+        <v>2.945090836678793</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.5328504627828474</v>
+      </c>
+      <c r="N50" t="n">
+        <v>7.711918418978156</v>
       </c>
     </row>
     <row r="51">
@@ -2004,25 +2764,40 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>477</v>
+        <v>514</v>
       </c>
       <c r="D51" t="n">
-        <v>7474097828.595113</v>
+        <v>13463044696.93063</v>
       </c>
       <c r="E51" t="n">
-        <v>0.002903440489956149</v>
+        <v>0.003893258485698142</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1671705480251729</v>
+        <v>0.1000046044790263</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.2333006427905768</v>
+        <v>0.08517727163840239</v>
       </c>
       <c r="I51" t="n">
-        <v>1.567829724052149</v>
+        <v>1</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.1070122309302951</v>
+      </c>
+      <c r="L51" t="n">
+        <v>8.558352066418232</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.7689415749319991</v>
+      </c>
+      <c r="N51" t="n">
+        <v>6.820479432221751</v>
       </c>
     </row>
     <row r="52">
@@ -2035,25 +2810,40 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>535</v>
+        <v>428</v>
       </c>
       <c r="D52" t="n">
-        <v>4673181981.214025</v>
+        <v>7420443734.050133</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0032647394106087</v>
+        <v>0.002978364556538109</v>
       </c>
       <c r="F52" t="n">
-        <v>0.299875685482281</v>
+        <v>0.1510824635534425</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0.6853751407096842</v>
+        <v>0.2430288231988827</v>
       </c>
       <c r="I52" t="n">
-        <v>1.758467300561635</v>
+        <v>2</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.5331232883015293</v>
+      </c>
+      <c r="L52" t="n">
+        <v>6.509122996087051</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.7023183530523072</v>
+      </c>
+      <c r="N52" t="n">
+        <v>7.537244064959093</v>
       </c>
     </row>
     <row r="53">
@@ -2066,25 +2856,40 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>455</v>
+        <v>528</v>
       </c>
       <c r="D53" t="n">
-        <v>10732814316.16209</v>
+        <v>9230304776.607626</v>
       </c>
       <c r="E53" t="n">
-        <v>0.001614771459233107</v>
+        <v>0.004748837903182749</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1110447283342343</v>
+        <v>0.1498366471608863</v>
       </c>
       <c r="G53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53" t="n">
-        <v>0.04210192778016262</v>
+        <v>0.2391787391490016</v>
       </c>
       <c r="I53" t="n">
-        <v>1.495518919169241</v>
+        <v>9</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.9849726309375562</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.3030964727269224</v>
+      </c>
+      <c r="L53" t="n">
+        <v>3.120209751222901</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.8623263661773884</v>
+      </c>
+      <c r="N53" t="n">
+        <v>14.12631757232487</v>
       </c>
     </row>
     <row r="54">
@@ -2097,25 +2902,40 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>553</v>
+        <v>608</v>
       </c>
       <c r="D54" t="n">
-        <v>5333593963.09161</v>
+        <v>10151461500.65443</v>
       </c>
       <c r="E54" t="n">
-        <v>0.004702064893980365</v>
+        <v>0.003825806088110311</v>
       </c>
       <c r="F54" t="n">
-        <v>0.271584728800834</v>
+        <v>0.1568827424403206</v>
       </c>
       <c r="G54" t="b">
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>0.5889989168310107</v>
+        <v>0.2609540659237838</v>
       </c>
       <c r="I54" t="n">
-        <v>1.817630686374924</v>
+        <v>13</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.3150042204766343</v>
+      </c>
+      <c r="L54" t="n">
+        <v>2.658984153032261</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.4993733171305013</v>
+      </c>
+      <c r="N54" t="n">
+        <v>7.328482189577764</v>
       </c>
     </row>
     <row r="55">
@@ -2128,25 +2948,40 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>567</v>
+        <v>505</v>
       </c>
       <c r="D55" t="n">
-        <v>6060484566.65217</v>
+        <v>5887101929.746185</v>
       </c>
       <c r="E55" t="n">
-        <v>0.001483566800546472</v>
+        <v>0.001561774962723762</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2450619440848483</v>
+        <v>0.2246932303509531</v>
       </c>
       <c r="G55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
-        <v>0.4986461632477426</v>
+        <v>0.4705163091879679</v>
       </c>
       <c r="I55" t="n">
-        <v>1.863646653118593</v>
+        <v>8</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.3004780897265284</v>
+      </c>
+      <c r="L55" t="n">
+        <v>3.288477943619289</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.5931273286801035</v>
+      </c>
+      <c r="N55" t="n">
+        <v>8.574068629982781</v>
       </c>
     </row>
     <row r="56">
@@ -2159,25 +2994,40 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>586</v>
+        <v>478</v>
       </c>
       <c r="D56" t="n">
-        <v>4889127131.507279</v>
+        <v>5830579513.448035</v>
       </c>
       <c r="E56" t="n">
-        <v>0.001146718870240128</v>
+        <v>0.004915031371577813</v>
       </c>
       <c r="F56" t="n">
-        <v>0.3139543110074094</v>
+        <v>0.2147416765541309</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.7333355112546505</v>
+        <v>0.4397619229287996</v>
       </c>
       <c r="I56" t="n">
-        <v>1.926096893699286</v>
+        <v>1</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.2706123341327289</v>
+      </c>
+      <c r="L56" t="n">
+        <v>8.721952169620666</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.7510089945613053</v>
+      </c>
+      <c r="N56" t="n">
+        <v>6.298227721605441</v>
       </c>
     </row>
     <row r="57">
@@ -2190,25 +3040,40 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>417</v>
+        <v>376</v>
       </c>
       <c r="D57" t="n">
-        <v>5494992250.02167</v>
+        <v>13595423705.88872</v>
       </c>
       <c r="E57" t="n">
-        <v>0.001892700453050512</v>
+        <v>0.002277044999587436</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1987783749823655</v>
+        <v>0.07244280585189886</v>
       </c>
       <c r="G57" t="b">
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0.3409761463603258</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>1.370618438007854</v>
+        <v>2</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.2437467094955434</v>
+      </c>
+      <c r="L57" t="n">
+        <v>6.219746417281065</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.6694167597876569</v>
+      </c>
+      <c r="N57" t="n">
+        <v>7.168588778472072</v>
       </c>
     </row>
     <row r="58">
@@ -2221,25 +3086,40 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>435</v>
+        <v>618</v>
       </c>
       <c r="D58" t="n">
-        <v>4613778647.920461</v>
+        <v>10731199252.28675</v>
       </c>
       <c r="E58" t="n">
-        <v>0.003599858423189042</v>
+        <v>0.003210105022742737</v>
       </c>
       <c r="F58" t="n">
-        <v>0.2469634408043329</v>
+        <v>0.1508482865654598</v>
       </c>
       <c r="G58" t="b">
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0.5051238188323555</v>
+        <v>0.2423051201783825</v>
       </c>
       <c r="I58" t="n">
-        <v>1.429781823821142</v>
+        <v>12</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.4643160932080178</v>
+      </c>
+      <c r="L58" t="n">
+        <v>2.904007757724002</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.5554675156601325</v>
+      </c>
+      <c r="N58" t="n">
+        <v>8.205342555478648</v>
       </c>
     </row>
     <row r="59">
@@ -2252,25 +3132,40 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>520</v>
+        <v>603</v>
       </c>
       <c r="D59" t="n">
-        <v>11899064499.4138</v>
+        <v>4313695714.086963</v>
       </c>
       <c r="E59" t="n">
-        <v>0.002381176626755057</v>
+        <v>0.001921373897318952</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1144697383619614</v>
+        <v>0.3661575305003439</v>
       </c>
       <c r="G59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
-        <v>0.05376959730918199</v>
+        <v>0.9076990665244754</v>
       </c>
       <c r="I59" t="n">
-        <v>1.709164479050561</v>
+        <v>11</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.3582604734970845</v>
+      </c>
+      <c r="L59" t="n">
+        <v>2.906435310778668</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.5782557646525088</v>
+      </c>
+      <c r="N59" t="n">
+        <v>8.658679982271508</v>
       </c>
     </row>
     <row r="60">
@@ -2283,25 +3178,40 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>586</v>
+        <v>388</v>
       </c>
       <c r="D60" t="n">
-        <v>3913395825.595566</v>
+        <v>12931169345.78594</v>
       </c>
       <c r="E60" t="n">
-        <v>0.004383659442112248</v>
+        <v>0.004442299867078091</v>
       </c>
       <c r="F60" t="n">
-        <v>0.3922328863235805</v>
+        <v>0.07859485038228221</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0.01901234296009457</v>
       </c>
       <c r="I60" t="n">
-        <v>1.926096893699286</v>
+        <v>1</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.04139375179483476</v>
+      </c>
+      <c r="L60" t="n">
+        <v>8.492733587282773</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.7011698207680137</v>
+      </c>
+      <c r="N60" t="n">
+        <v>5.530662828077501</v>
       </c>
     </row>
     <row r="61">
@@ -2314,25 +3224,40 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>404</v>
+        <v>383</v>
       </c>
       <c r="D61" t="n">
-        <v>5200655474.504102</v>
+        <v>6675615433.276045</v>
       </c>
       <c r="E61" t="n">
-        <v>0.00241419510991461</v>
+        <v>0.002019913043639493</v>
       </c>
       <c r="F61" t="n">
-        <v>0.2034808045231848</v>
+        <v>0.1502822294105202</v>
       </c>
       <c r="G61" t="b">
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0.356995484529151</v>
+        <v>0.2405557712080403</v>
       </c>
       <c r="I61" t="n">
-        <v>1.32788932603159</v>
+        <v>1</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.07974133220210222</v>
+      </c>
+      <c r="L61" t="n">
+        <v>8.53108116769004</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.698148915173591</v>
+      </c>
+      <c r="N61" t="n">
+        <v>5.43189713578178</v>
       </c>
     </row>
     <row r="62">
@@ -2345,25 +3270,40 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="D62" t="n">
-        <v>5405151480.290417</v>
+        <v>3849472209.080262</v>
       </c>
       <c r="E62" t="n">
-        <v>0.003758092146377222</v>
+        <v>0.003771226796759389</v>
       </c>
       <c r="F62" t="n">
-        <v>0.278650701186098</v>
+        <v>0.3960244150883839</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0.613069921010566</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
-        <v>1.889941491257832</v>
+        <v>1</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.7127287748768524</v>
+      </c>
+      <c r="L62" t="n">
+        <v>9.16406861036479</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.8003756409579584</v>
+      </c>
+      <c r="N62" t="n">
+        <v>6.843444208794377</v>
       </c>
     </row>
     <row r="63">
@@ -2376,25 +3316,40 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>561</v>
+        <v>596</v>
       </c>
       <c r="D63" t="n">
-        <v>8273590882.480163</v>
+        <v>10551181029.94889</v>
       </c>
       <c r="E63" t="n">
-        <v>0.001541526426544644</v>
+        <v>0.002427678262990123</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1776106422075703</v>
+        <v>0.1479603501796388</v>
       </c>
       <c r="G63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
-        <v>0.2688659602015998</v>
+        <v>0.2333802112732218</v>
       </c>
       <c r="I63" t="n">
-        <v>1.843925524514163</v>
+        <v>12</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.9891268496605991</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.5453136348226949</v>
+      </c>
+      <c r="L63" t="n">
+        <v>2.985005299338679</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.8713600798764378</v>
+      </c>
+      <c r="N63" t="n">
+        <v>14.44219629819008</v>
       </c>
     </row>
     <row r="64">
@@ -2407,25 +3362,40 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>522</v>
+        <v>476</v>
       </c>
       <c r="D64" t="n">
-        <v>3930228834.052375</v>
+        <v>12269531741.37019</v>
       </c>
       <c r="E64" t="n">
-        <v>0.001804699437831559</v>
+        <v>0.004610314179341419</v>
       </c>
       <c r="F64" t="n">
-        <v>0.3478987198285307</v>
+        <v>0.1016199856915453</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.8489708353198481</v>
+        <v>0.09016946268513894</v>
       </c>
       <c r="I64" t="n">
-        <v>1.715738188585371</v>
+        <v>1</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.3847609455365925</v>
+      </c>
+      <c r="L64" t="n">
+        <v>8.83610078102453</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.7499830575737291</v>
+      </c>
+      <c r="N64" t="n">
+        <v>6.163560370450051</v>
       </c>
     </row>
     <row r="65">
@@ -2438,25 +3408,40 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>461</v>
+        <v>383</v>
       </c>
       <c r="D65" t="n">
-        <v>7283315285.110168</v>
+        <v>12528971061.8762</v>
       </c>
       <c r="E65" t="n">
-        <v>0.00233644233676065</v>
+        <v>0.004978969050527762</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1657952103856691</v>
+        <v>0.08007252670992823</v>
       </c>
       <c r="G65" t="b">
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0.2286154053931257</v>
+        <v>0.0235789693859063</v>
       </c>
       <c r="I65" t="n">
-        <v>1.51524004777367</v>
+        <v>3</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.0515238373986573</v>
+      </c>
+      <c r="L65" t="n">
+        <v>4.930907166430625</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.6477921973921894</v>
+      </c>
+      <c r="N65" t="n">
+        <v>8.024936781413164</v>
       </c>
     </row>
     <row r="66">
@@ -2469,25 +3454,40 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="D66" t="n">
-        <v>3942817288.622167</v>
+        <v>6608854601.306221</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001461693853076115</v>
+        <v>0.004938173837721294</v>
       </c>
       <c r="F66" t="n">
-        <v>0.3122420365642196</v>
+        <v>0.1843006728819942</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0.7275024619542422</v>
+        <v>0.3456867258124846</v>
       </c>
       <c r="I66" t="n">
-        <v>1.544821740680315</v>
+        <v>1</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.5605239361523563</v>
+      </c>
+      <c r="L66" t="n">
+        <v>9.011863771640293</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0.7442809862590475</v>
+      </c>
+      <c r="N66" t="n">
+        <v>5.873755953540657</v>
       </c>
     </row>
     <row r="67">
@@ -2500,25 +3500,40 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>459</v>
+        <v>385</v>
       </c>
       <c r="D67" t="n">
-        <v>3700363061.009099</v>
+        <v>6902521089.391541</v>
       </c>
       <c r="E67" t="n">
-        <v>0.004617733709396809</v>
+        <v>0.001302970660678709</v>
       </c>
       <c r="F67" t="n">
-        <v>0.3249140665867877</v>
+        <v>0.1461009878767203</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>0.7706711117883144</v>
+        <v>0.2276340185050178</v>
       </c>
       <c r="I67" t="n">
-        <v>1.508666338238861</v>
+        <v>7</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.1862495607038384</v>
+      </c>
+      <c r="L67" t="n">
+        <v>3.380555767845926</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0.5065702548476444</v>
+      </c>
+      <c r="N67" t="n">
+        <v>6.750849329106962</v>
       </c>
     </row>
     <row r="68">
@@ -2531,25 +3546,40 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>446</v>
+        <v>513</v>
       </c>
       <c r="D68" t="n">
-        <v>8608177997.122414</v>
+        <v>7009675477.722244</v>
       </c>
       <c r="E68" t="n">
-        <v>0.004903775497223803</v>
+        <v>0.002442647305339544</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1357137294780066</v>
+        <v>0.1916988987964737</v>
       </c>
       <c r="G68" t="b">
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>0.1261395658093708</v>
+        <v>0.3685502807961444</v>
       </c>
       <c r="I68" t="n">
-        <v>1.465937226262597</v>
+        <v>10</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.3100748008714284</v>
+      </c>
+      <c r="L68" t="n">
+        <v>2.982623116896889</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0.5235366907665272</v>
+      </c>
+      <c r="N68" t="n">
+        <v>7.488110698433655</v>
       </c>
     </row>
     <row r="69">
@@ -2562,25 +3592,40 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>544</v>
+        <v>470</v>
       </c>
       <c r="D69" t="n">
-        <v>6753183273.876003</v>
+        <v>4509320419.553285</v>
       </c>
       <c r="E69" t="n">
-        <v>0.001009454970858385</v>
+        <v>0.001473085525823155</v>
       </c>
       <c r="F69" t="n">
-        <v>0.2110039224779025</v>
+        <v>0.2730152629344446</v>
       </c>
       <c r="G69" t="b">
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.3826238048589836</v>
+        <v>0.6198512256484893</v>
       </c>
       <c r="I69" t="n">
-        <v>1.788048993468279</v>
+        <v>1</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.08114164213517597</v>
+      </c>
+      <c r="L69" t="n">
+        <v>8.532481477623113</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.7468854326909398</v>
+      </c>
+      <c r="N69" t="n">
+        <v>6.405227176195682</v>
       </c>
     </row>
     <row r="70">
@@ -2593,25 +3638,40 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>507</v>
+        <v>403</v>
       </c>
       <c r="D70" t="n">
-        <v>5238618951.460663</v>
+        <v>10350088243.81495</v>
       </c>
       <c r="E70" t="n">
-        <v>0.002152856045830613</v>
+        <v>0.002059327837050325</v>
       </c>
       <c r="F70" t="n">
-        <v>0.2535077932380844</v>
+        <v>0.1019908376753037</v>
       </c>
       <c r="G70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>0.5274178678600362</v>
+        <v>0.09131554754649263</v>
       </c>
       <c r="I70" t="n">
-        <v>0.1460035241810153</v>
+        <v>1</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.06589521834262357</v>
+      </c>
+      <c r="L70" t="n">
+        <v>8.517235053830561</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0.7100549738878692</v>
+      </c>
+      <c r="N70" t="n">
+        <v>5.683864423926824</v>
       </c>
     </row>
     <row r="71">
@@ -2624,25 +3684,40 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>417</v>
+        <v>573</v>
       </c>
       <c r="D71" t="n">
-        <v>10971906403.63111</v>
+        <v>6315217574.259756</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004135454195375603</v>
+        <v>0.002557261864882081</v>
       </c>
       <c r="F71" t="n">
-        <v>0.0995529482131302</v>
+        <v>0.2376656785535897</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.002953927725349075</v>
+        <v>0.5106064992121975</v>
       </c>
       <c r="I71" t="n">
-        <v>1.370618438007854</v>
+        <v>1</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.8781069843706988</v>
+      </c>
+      <c r="L71" t="n">
+        <v>9.329446819858637</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0.7963793340833069</v>
+      </c>
+      <c r="N71" t="n">
+        <v>6.5981398618075</v>
       </c>
     </row>
     <row r="72">
@@ -2655,25 +3730,40 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>467</v>
+        <v>532</v>
       </c>
       <c r="D72" t="n">
-        <v>10213107261.50487</v>
+        <v>8380811236.798944</v>
       </c>
       <c r="E72" t="n">
-        <v>0.00148032754405016</v>
+        <v>0.001994795644767385</v>
       </c>
       <c r="F72" t="n">
-        <v>0.119773062073937</v>
+        <v>0.1662745336491142</v>
       </c>
       <c r="G72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0.07183594688942181</v>
+        <v>0.2899785560082301</v>
       </c>
       <c r="I72" t="n">
-        <v>0.1149679931117198</v>
+        <v>1</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0.3187506104630226</v>
+      </c>
+      <c r="L72" t="n">
+        <v>8.770090445950959</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0.7775533511649931</v>
+      </c>
+      <c r="N72" t="n">
+        <v>6.780976577348904</v>
       </c>
     </row>
     <row r="73">
@@ -2686,25 +3776,40 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>509</v>
+        <v>571</v>
       </c>
       <c r="D73" t="n">
-        <v>7263831433.666242</v>
+        <v>3805966477.107373</v>
       </c>
       <c r="E73" t="n">
-        <v>0.004150488471087899</v>
+        <v>0.003990783982156835</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1835490707866089</v>
+        <v>0.3929807839865019</v>
       </c>
       <c r="G73" t="b">
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>0.2890958636532658</v>
+        <v>0.9905939305108727</v>
       </c>
       <c r="I73" t="n">
-        <v>1.673009076609107</v>
+        <v>13</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.9886126472049174</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0.4909339833661079</v>
+      </c>
+      <c r="L73" t="n">
+        <v>2.834913915921735</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0.8379863373810483</v>
+      </c>
+      <c r="N73" t="n">
+        <v>13.92481283169923</v>
       </c>
     </row>
     <row r="74">
@@ -2717,25 +3822,40 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>453</v>
+        <v>388</v>
       </c>
       <c r="D74" t="n">
-        <v>8773173499.35335</v>
+        <v>4644970620.402581</v>
       </c>
       <c r="E74" t="n">
-        <v>0.001253580176352478</v>
+        <v>0.00196962289377296</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1352513625870342</v>
+        <v>0.2188008069493268</v>
       </c>
       <c r="G74" t="b">
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>0.1245644626589121</v>
+        <v>0.4523063020879666</v>
       </c>
       <c r="I74" t="n">
-        <v>1.488945209634431</v>
+        <v>3</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0.1692360377066197</v>
+      </c>
+      <c r="L74" t="n">
+        <v>5.048619366738587</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0.651384581338869</v>
+      </c>
+      <c r="N74" t="n">
+        <v>7.979072260038792</v>
       </c>
     </row>
     <row r="75">
@@ -2748,25 +3868,40 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>568</v>
+        <v>396</v>
       </c>
       <c r="D75" t="n">
-        <v>4587429759.570169</v>
+        <v>10932303184.92679</v>
       </c>
       <c r="E75" t="n">
-        <v>0.002257239628741936</v>
+        <v>0.001746550265105777</v>
       </c>
       <c r="F75" t="n">
-        <v>0.3243239892439038</v>
+        <v>0.09488196791232206</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0.7686609490800026</v>
+        <v>0.06934622184916529</v>
       </c>
       <c r="I75" t="n">
-        <v>1.866933507885998</v>
+        <v>1</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0.1726936799116815</v>
+      </c>
+      <c r="L75" t="n">
+        <v>8.624033515399619</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0.7059410291368854</v>
+      </c>
+      <c r="N75" t="n">
+        <v>5.494787067338089</v>
       </c>
     </row>
     <row r="76">
@@ -2779,25 +3914,40 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>444</v>
+        <v>603</v>
       </c>
       <c r="D76" t="n">
-        <v>11784965918.20214</v>
+        <v>4811903576.353811</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001551751745503338</v>
+        <v>0.002500517279637018</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09868583142898248</v>
+        <v>0.3282468455439936</v>
       </c>
       <c r="G76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>0.7905394880002096</v>
       </c>
       <c r="I76" t="n">
-        <v>0.1292288186179044</v>
+        <v>12</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.2613536611553087</v>
+      </c>
+      <c r="L76" t="n">
+        <v>2.701045325671293</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0.5394041837747016</v>
+      </c>
+      <c r="N76" t="n">
+        <v>8.087038349822738</v>
       </c>
     </row>
     <row r="77">
@@ -2810,25 +3960,40 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>520</v>
+        <v>459</v>
       </c>
       <c r="D77" t="n">
-        <v>7234510371.590752</v>
+        <v>11849623873.76866</v>
       </c>
       <c r="E77" t="n">
-        <v>0.003583660996018748</v>
+        <v>0.001640206356068186</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1882757408640635</v>
+        <v>0.1014631369575801</v>
       </c>
       <c r="G77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>0.3051977798491266</v>
+        <v>0.08968473571213414</v>
       </c>
       <c r="I77" t="n">
-        <v>0.1531277276957646</v>
+        <v>1</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0.1374391805008106</v>
+      </c>
+      <c r="L77" t="n">
+        <v>8.588779015988749</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0.7411273109659933</v>
+      </c>
+      <c r="N77" t="n">
+        <v>6.233767203331116</v>
       </c>
     </row>
     <row r="78">
@@ -2841,25 +4006,40 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>478</v>
+        <v>458</v>
       </c>
       <c r="D78" t="n">
-        <v>5657212265.452379</v>
+        <v>9463813177.231823</v>
       </c>
       <c r="E78" t="n">
-        <v>0.002291478011280351</v>
+        <v>0.002681387335630043</v>
       </c>
       <c r="F78" t="n">
-        <v>0.2213225103194671</v>
+        <v>0.1267650361998067</v>
       </c>
       <c r="G78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>0.4177751976919644</v>
+        <v>0.1678779905819902</v>
       </c>
       <c r="I78" t="n">
-        <v>0.09245552728998113</v>
+        <v>1</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0.0632872528968952</v>
+      </c>
+      <c r="L78" t="n">
+        <v>8.514627088384833</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0.7405986442791918</v>
+      </c>
+      <c r="N78" t="n">
+        <v>6.297345797199002</v>
       </c>
     </row>
     <row r="79">
@@ -2872,25 +4052,40 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>425</v>
+        <v>533</v>
       </c>
       <c r="D79" t="n">
-        <v>4384516506.611778</v>
+        <v>7876430198.800644</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003928845664380482</v>
+        <v>0.002286660564860322</v>
       </c>
       <c r="F79" t="n">
-        <v>0.2539027389499507</v>
+        <v>0.1772547759278806</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>0.5287632934239483</v>
+        <v>0.3239120119443543</v>
       </c>
       <c r="I79" t="n">
-        <v>1.396913276147093</v>
+        <v>1</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0.365173325936356</v>
+      </c>
+      <c r="L79" t="n">
+        <v>8.816513161424293</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0.7780252972860764</v>
+      </c>
+      <c r="N79" t="n">
+        <v>6.743992784297234</v>
       </c>
     </row>
     <row r="80">
@@ -2903,25 +4098,40 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>462</v>
+        <v>562</v>
       </c>
       <c r="D80" t="n">
-        <v>7589879168.230198</v>
+        <v>13353668224.94221</v>
       </c>
       <c r="E80" t="n">
-        <v>0.002232241306376718</v>
+        <v>0.00240263065359294</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1594436687563478</v>
+        <v>0.1102391608959097</v>
       </c>
       <c r="G80" t="b">
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>0.2069781873614137</v>
+        <v>0.1168062521636941</v>
       </c>
       <c r="I80" t="n">
-        <v>1.518526902541075</v>
+        <v>1</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.5219558866169458</v>
+      </c>
+      <c r="L80" t="n">
+        <v>8.973295722104883</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0.7914305208934853</v>
+      </c>
+      <c r="N80" t="n">
+        <v>6.855314695764823</v>
       </c>
     </row>
     <row r="81">
@@ -2934,25 +4144,40 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>424</v>
+        <v>387</v>
       </c>
       <c r="D81" t="n">
-        <v>6642125503.472891</v>
+        <v>6019420178.712013</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001917182933926802</v>
+        <v>0.001780150818363885</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1672087285040462</v>
+        <v>0.1684055772655672</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>0.2334307087484417</v>
+        <v>0.2965643555580912</v>
       </c>
       <c r="I81" t="n">
-        <v>1.393626421379688</v>
+        <v>7</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0.2065796588510976</v>
+      </c>
+      <c r="L81" t="n">
+        <v>3.400885865993185</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0.5091223115214011</v>
+      </c>
+      <c r="N81" t="n">
+        <v>6.781560364434837</v>
       </c>
     </row>
     <row r="82">
@@ -2965,25 +4190,40 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>438</v>
+        <v>496</v>
       </c>
       <c r="D82" t="n">
-        <v>6041619810.718212</v>
+        <v>15004263886.36185</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003206823848763001</v>
+        <v>0.003856824950587691</v>
       </c>
       <c r="F82" t="n">
-        <v>0.189898215370095</v>
+        <v>0.08658988203886001</v>
       </c>
       <c r="G82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>0.3107249158873816</v>
+        <v>0.04372027267044697</v>
       </c>
       <c r="I82" t="n">
-        <v>0.1221620877683634</v>
+        <v>11</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.2941358521968019</v>
+      </c>
+      <c r="L82" t="n">
+        <v>2.842310689478385</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0.4453251715326497</v>
+      </c>
+      <c r="N82" t="n">
+        <v>6.06419274117461</v>
       </c>
     </row>
     <row r="83">
@@ -2996,25 +4236,40 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>437</v>
+        <v>568</v>
       </c>
       <c r="D83" t="n">
-        <v>6345196562.570384</v>
+        <v>10273091806.66508</v>
       </c>
       <c r="E83" t="n">
-        <v>0.001812576781077812</v>
+        <v>0.001074467946424377</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1803999952897129</v>
+        <v>0.1448262653541869</v>
       </c>
       <c r="G83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H83" t="n">
-        <v>0.2783681951436066</v>
+        <v>0.2236946026477902</v>
       </c>
       <c r="I83" t="n">
-        <v>1.436355533355952</v>
+        <v>14</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.9896125406057243</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.4144710028255797</v>
+      </c>
+      <c r="L83" t="n">
+        <v>2.67318658308203</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0.8205607208148372</v>
+      </c>
+      <c r="N83" t="n">
+        <v>13.73802783321471</v>
       </c>
     </row>
     <row r="84">
@@ -3027,25 +4282,40 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>526</v>
+        <v>605</v>
       </c>
       <c r="D84" t="n">
-        <v>7567312768.46434</v>
+        <v>8976384293.716661</v>
       </c>
       <c r="E84" t="n">
-        <v>0.001655168646819171</v>
+        <v>0.002189648524973373</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1820724452862283</v>
+        <v>0.176544463577533</v>
       </c>
       <c r="G84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H84" t="n">
-        <v>0.2840655781308617</v>
+        <v>0.3217168552046877</v>
       </c>
       <c r="I84" t="n">
-        <v>1.728885607654991</v>
+        <v>20</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.9902613726669688</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.378027278719713</v>
+      </c>
+      <c r="L84" t="n">
+        <v>2.267804316030005</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0.7492558899979281</v>
+      </c>
+      <c r="N84" t="n">
+        <v>12.71731348392856</v>
       </c>
     </row>
     <row r="85">
@@ -3058,25 +4328,40 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D85" t="n">
-        <v>8500155863.010633</v>
+        <v>7049221011.471227</v>
       </c>
       <c r="E85" t="n">
-        <v>0.002764320414065716</v>
+        <v>0.002715974243362818</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1488402554481979</v>
+        <v>0.1783611547934132</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.1708565055684993</v>
+        <v>0.3273311767978302</v>
       </c>
       <c r="I85" t="n">
-        <v>1.587550852656579</v>
+        <v>1</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.09019599151185029</v>
+      </c>
+      <c r="L85" t="n">
+        <v>8.541535826999787</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0.752031671741999</v>
+      </c>
+      <c r="N85" t="n">
+        <v>6.499097607840193</v>
       </c>
     </row>
     <row r="86">
@@ -3089,25 +4374,40 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>514</v>
+        <v>589</v>
       </c>
       <c r="D86" t="n">
-        <v>10285970994.58487</v>
+        <v>8328209528.632951</v>
       </c>
       <c r="E86" t="n">
-        <v>0.003747675497186098</v>
+        <v>0.001306615275381153</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1308934723526642</v>
+        <v>0.185252388847288</v>
       </c>
       <c r="G86" t="b">
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>0.1097188351463661</v>
+        <v>0.3486279188164362</v>
       </c>
       <c r="I86" t="n">
-        <v>1.689443350446132</v>
+        <v>13</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0.4110601237850071</v>
+      </c>
+      <c r="L86" t="n">
+        <v>2.755040056340634</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0.4725124638044451</v>
+      </c>
+      <c r="N86" t="n">
+        <v>6.695209219748266</v>
       </c>
     </row>
     <row r="87">
@@ -3120,25 +4420,40 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>415</v>
+        <v>594</v>
       </c>
       <c r="D87" t="n">
-        <v>9358215813.928715</v>
+        <v>12501007827.40667</v>
       </c>
       <c r="E87" t="n">
-        <v>0.00213187991332115</v>
+        <v>0.001730716117933279</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1161596261097169</v>
+        <v>0.1244633777917387</v>
       </c>
       <c r="G87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H87" t="n">
-        <v>0.05952638389442765</v>
+        <v>0.1607649212901386</v>
       </c>
       <c r="I87" t="n">
-        <v>1.364044728473044</v>
+        <v>12</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.9871675485355244</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0.2906102943742809</v>
+      </c>
+      <c r="L87" t="n">
+        <v>2.730301958890265</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0.8690778971748802</v>
+      </c>
+      <c r="N87" t="n">
+        <v>14.65125598460734</v>
       </c>
     </row>
     <row r="88">
@@ -3151,25 +4466,40 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="D88" t="n">
-        <v>9420963917.35066</v>
+        <v>9178243162.137007</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004376081163326431</v>
+        <v>0.003298927118167436</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1248392542756646</v>
+        <v>0.1261429185899267</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>0.08909448216427453</v>
+        <v>0.1659553917935487</v>
       </c>
       <c r="I88" t="n">
-        <v>1.475797790564811</v>
+        <v>1</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0.2480176285071592</v>
+      </c>
+      <c r="L88" t="n">
+        <v>8.699357463995097</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0.7320175291453617</v>
+      </c>
+      <c r="N88" t="n">
+        <v>5.940993118912136</v>
       </c>
     </row>
     <row r="89">
@@ -3182,25 +4512,40 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>509</v>
+        <v>578</v>
       </c>
       <c r="D89" t="n">
-        <v>4500029454.646226</v>
+        <v>12308257128.32035</v>
       </c>
       <c r="E89" t="n">
-        <v>0.002511555927821913</v>
+        <v>0.001280075440552624</v>
       </c>
       <c r="F89" t="n">
-        <v>0.2962801740382867</v>
+        <v>0.123007457856595</v>
       </c>
       <c r="G89" t="b">
         <v>1</v>
       </c>
       <c r="H89" t="n">
-        <v>0.6731266395442226</v>
+        <v>0.1562655310479702</v>
       </c>
       <c r="I89" t="n">
-        <v>0.147611953825032</v>
+        <v>9</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.9863493121186522</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0.3020972755878775</v>
+      </c>
+      <c r="L89" t="n">
+        <v>3.119210554083856</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0.8977293124300135</v>
+      </c>
+      <c r="N89" t="n">
+        <v>14.83537569451642</v>
       </c>
     </row>
     <row r="90">
@@ -3213,25 +4558,40 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>456</v>
+        <v>431</v>
       </c>
       <c r="D90" t="n">
-        <v>3654971976.427532</v>
+        <v>7766322376.76805</v>
       </c>
       <c r="E90" t="n">
-        <v>0.00104923938025695</v>
+        <v>0.003534428900257333</v>
       </c>
       <c r="F90" t="n">
-        <v>0.3267991786813861</v>
+        <v>0.1453657259164427</v>
       </c>
       <c r="G90" t="b">
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>0.7770929513645121</v>
+        <v>0.2253617572290678</v>
       </c>
       <c r="I90" t="n">
-        <v>1.498805773936646</v>
+        <v>1</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0.5156608453688063</v>
+      </c>
+      <c r="L90" t="n">
+        <v>8.967000680856744</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0.7259790061983308</v>
+      </c>
+      <c r="N90" t="n">
+        <v>5.552579443109872</v>
       </c>
     </row>
     <row r="91">
@@ -3244,25 +4604,40 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>481</v>
+        <v>454</v>
       </c>
       <c r="D91" t="n">
-        <v>5824431854.464951</v>
+        <v>12831767291.22521</v>
       </c>
       <c r="E91" t="n">
-        <v>0.001304259300510288</v>
+        <v>0.001962726968511287</v>
       </c>
       <c r="F91" t="n">
-        <v>0.2163175089831557</v>
+        <v>0.09267648274865586</v>
       </c>
       <c r="G91" t="b">
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>0.4007251157617998</v>
+        <v>0.06253036736080236</v>
       </c>
       <c r="I91" t="n">
-        <v>1.580977143121769</v>
+        <v>1</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0.0377877268563677</v>
+      </c>
+      <c r="L91" t="n">
+        <v>8.489127562344304</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0.7384751213198503</v>
+      </c>
+      <c r="N91" t="n">
+        <v>6.280374864052702</v>
       </c>
     </row>
     <row r="92">
@@ -3275,25 +4650,40 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>549</v>
+        <v>379</v>
       </c>
       <c r="D92" t="n">
-        <v>7254846668.152979</v>
+        <v>6483593626.00493</v>
       </c>
       <c r="E92" t="n">
-        <v>0.004153207347415489</v>
+        <v>0.002117266920926892</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1982185393817722</v>
+        <v>0.1531170624294221</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.3390690054394457</v>
+        <v>0.2493165689109469</v>
       </c>
       <c r="I92" t="n">
-        <v>1.804483267305304</v>
+        <v>6</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0.128864271289646</v>
+      </c>
+      <c r="L92" t="n">
+        <v>3.579109311256742</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0.5443559081325149</v>
+      </c>
+      <c r="N92" t="n">
+        <v>7.308008851393556</v>
       </c>
     </row>
     <row r="93">
@@ -3306,25 +4696,40 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>481</v>
+        <v>396</v>
       </c>
       <c r="D93" t="n">
-        <v>8109514055.420577</v>
+        <v>9390551974.893625</v>
       </c>
       <c r="E93" t="n">
-        <v>0.003862009272679614</v>
+        <v>0.001482920202852919</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1553640059551827</v>
+        <v>0.1104597943521579</v>
       </c>
       <c r="G93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>0.1930803718897852</v>
+        <v>0.1174881001116317</v>
       </c>
       <c r="I93" t="n">
-        <v>0.1172346963979493</v>
+        <v>1</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0.4213698921071654</v>
+      </c>
+      <c r="L93" t="n">
+        <v>8.872709727595103</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0.7059410291368854</v>
+      </c>
+      <c r="N93" t="n">
+        <v>5.246110855142605</v>
       </c>
     </row>
     <row r="94">
@@ -3337,25 +4742,40 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>454</v>
+        <v>512</v>
       </c>
       <c r="D94" t="n">
-        <v>7720758752.167509</v>
+        <v>6732123030.325417</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004689348671871648</v>
+        <v>0.001073756052684995</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1540267087954465</v>
+        <v>0.1992131863839649</v>
       </c>
       <c r="G94" t="b">
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>0.1885247235280045</v>
+        <v>0.3917725139917261</v>
       </c>
       <c r="I94" t="n">
-        <v>1.492232064401836</v>
+        <v>1</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0.4811734120426803</v>
+      </c>
+      <c r="L94" t="n">
+        <v>8.932513247530618</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0.7679707168363933</v>
+      </c>
+      <c r="N94" t="n">
+        <v>6.426901089197248</v>
       </c>
     </row>
     <row r="95">
@@ -3368,25 +4788,40 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>583</v>
+        <v>504</v>
       </c>
       <c r="D95" t="n">
-        <v>4252692100.943707</v>
+        <v>11050701612.71999</v>
       </c>
       <c r="E95" t="n">
-        <v>0.001191019939142208</v>
+        <v>0.002183530205805787</v>
       </c>
       <c r="F95" t="n">
-        <v>0.3590912141655219</v>
+        <v>0.1194650445072561</v>
       </c>
       <c r="G95" t="b">
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>0.8870992857688232</v>
+        <v>0.1453180196683913</v>
       </c>
       <c r="I95" t="n">
-        <v>1.916236329397071</v>
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0.4677559338858057</v>
+      </c>
+      <c r="L95" t="n">
+        <v>8.919095769373744</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0.76405835316568</v>
+      </c>
+      <c r="N95" t="n">
+        <v>6.362071293939858</v>
       </c>
     </row>
     <row r="96">
@@ -3399,25 +4834,40 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>595</v>
+        <v>578</v>
       </c>
       <c r="D96" t="n">
-        <v>8293744629.526956</v>
+        <v>7798424683.92377</v>
       </c>
       <c r="E96" t="n">
-        <v>0.002045385215249732</v>
+        <v>0.003703972865183998</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1879171736794714</v>
+        <v>0.1941427251482063</v>
       </c>
       <c r="G96" t="b">
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>0.3039762816987846</v>
+        <v>0.3761027073926342</v>
       </c>
       <c r="I96" t="n">
-        <v>1.955678586605931</v>
+        <v>14</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0.2872173311530527</v>
+      </c>
+      <c r="L96" t="n">
+        <v>2.545932911409503</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0.3784557878851008</v>
+      </c>
+      <c r="N96" t="n">
+        <v>5.023182846292512</v>
       </c>
     </row>
     <row r="97">
@@ -3430,25 +4880,40 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>599</v>
+        <v>580</v>
       </c>
       <c r="D97" t="n">
-        <v>7722859592.330679</v>
+        <v>4634742932.006222</v>
       </c>
       <c r="E97" t="n">
-        <v>0.003263687175329887</v>
+        <v>0.001835714537144573</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2031649794019481</v>
+        <v>0.3277951382175948</v>
       </c>
       <c r="G97" t="b">
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>0.3559195918708171</v>
+        <v>0.7891435269396764</v>
       </c>
       <c r="I97" t="n">
-        <v>1.96882600567555</v>
+        <v>17</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0.3893424659828884</v>
+      </c>
+      <c r="L97" t="n">
+        <v>2.439093455377415</v>
+      </c>
+      <c r="M97" t="n">
+        <v>-0.4279032029073273</v>
+      </c>
+      <c r="N97" t="n">
+        <v>-10.99715751352396</v>
       </c>
     </row>
     <row r="98">
@@ -3461,25 +4926,40 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>408</v>
+        <v>423</v>
       </c>
       <c r="D98" t="n">
-        <v>4775157257.304383</v>
+        <v>9054084162.693121</v>
       </c>
       <c r="E98" t="n">
-        <v>0.001715347788404721</v>
+        <v>0.001755445146982878</v>
       </c>
       <c r="F98" t="n">
-        <v>0.2238064763972394</v>
+        <v>0.1223759300322681</v>
       </c>
       <c r="G98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>0.4262370985571058</v>
+        <v>0.154313850834076</v>
       </c>
       <c r="I98" t="n">
-        <v>0.07298147715192077</v>
+        <v>1</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0.1270455696404666</v>
+      </c>
+      <c r="L98" t="n">
+        <v>8.578385405128405</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0.7215126081565422</v>
+      </c>
+      <c r="N98" t="n">
+        <v>5.851866758002439</v>
       </c>
     </row>
     <row r="99">
@@ -3492,25 +4972,40 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>533</v>
+        <v>417</v>
       </c>
       <c r="D99" t="n">
-        <v>9433552888.395758</v>
+        <v>5376682256.533631</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004233064340437886</v>
+        <v>0.004987218711569141</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1479967183644446</v>
+        <v>0.2031523489550973</v>
       </c>
       <c r="G99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.1679829046595881</v>
+        <v>0.4039461433287798</v>
       </c>
       <c r="I99" t="n">
-        <v>0.09411951004721535</v>
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0.1941517126041738</v>
+      </c>
+      <c r="L99" t="n">
+        <v>8.645491548092112</v>
+      </c>
+      <c r="M99" t="n">
+        <v>0.7181199782465335</v>
+      </c>
+      <c r="N99" t="n">
+        <v>5.716908016838557</v>
       </c>
     </row>
     <row r="100">
@@ -3523,25 +5018,40 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>445</v>
+        <v>502</v>
       </c>
       <c r="D100" t="n">
-        <v>4195607569.241971</v>
+        <v>13795657048.65727</v>
       </c>
       <c r="E100" t="n">
-        <v>0.001900736546156981</v>
+        <v>0.002270177291117059</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2778211571895406</v>
+        <v>0.09531505279974919</v>
       </c>
       <c r="G100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H100" t="n">
-        <v>0.6102439890765692</v>
+        <v>0.07068463192892548</v>
       </c>
       <c r="I100" t="n">
-        <v>1.462650371495192</v>
+        <v>9</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.9881823054108351</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0.2258890986813137</v>
+      </c>
+      <c r="L100" t="n">
+        <v>3.043002377177292</v>
+      </c>
+      <c r="M100" t="n">
+        <v>0.8440749101959892</v>
+      </c>
+      <c r="N100" t="n">
+        <v>13.83849582674249</v>
       </c>
     </row>
     <row r="101">
@@ -3554,25 +5064,40 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>649</v>
+        <v>604</v>
       </c>
       <c r="D101" t="n">
-        <v>8473936460.644002</v>
+        <v>6088409044.836621</v>
       </c>
       <c r="E101" t="n">
-        <v>0.004566768039588344</v>
+        <v>0.003169170035935485</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2006132708093028</v>
+        <v>0.2598563185142326</v>
       </c>
       <c r="G101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H101" t="n">
-        <v>0.3472269187538561</v>
+        <v>0.5791846857568634</v>
       </c>
       <c r="I101" t="n">
-        <v>2.133168744045796</v>
+        <v>13</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0.9892131899097825</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0.3653995814940301</v>
+      </c>
+      <c r="L101" t="n">
+        <v>2.709379514049657</v>
+      </c>
+      <c r="M101" t="n">
+        <v>0.8632508798511335</v>
+      </c>
+      <c r="N101" t="n">
+        <v>14.55563808297301</v>
       </c>
     </row>
   </sheetData>
